--- a/data/trans_bre/LAWTONB_2R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.7322099568225705</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5240979759358292</v>
+        <v>0.5240979759358293</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9112330678307664</v>
+        <v>-0.3038504806411003</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.308442841372641</v>
+        <v>2.555793566037947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.62973546312071</v>
+        <v>9.130955194849234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.538761634045306</v>
+        <v>9.146183865760491</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02003822278468985</v>
+        <v>-0.02039313219537904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0276339977643867</v>
+        <v>0.03954243671952842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2860402763407189</v>
+        <v>0.3084888146433669</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1960592160227616</v>
+        <v>0.187618870748097</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.03903339357723</v>
+        <v>20.05867478007504</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.28229300223884</v>
+        <v>23.9275606212503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.33010652223139</v>
+        <v>26.76092436051146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.70531946844577</v>
+        <v>32.04491267382848</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8514880555097891</v>
+        <v>0.8099784085933894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9117035001568961</v>
+        <v>0.8531004929120408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.372457181975614</v>
+        <v>1.464272102056929</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.031875605253648</v>
+        <v>1.022909649155868</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>14.43677844146313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.74006216819126</v>
+        <v>15.74006216819127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08821963993848177</v>
@@ -749,7 +749,7 @@
         <v>0.7138314625757201</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5639224438099198</v>
+        <v>0.56392244380992</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.88485002656916</v>
+        <v>-12.40907447926188</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.034490038378657</v>
+        <v>4.629832695667215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.811522239991543</v>
+        <v>5.502773016201404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.639598852271442</v>
+        <v>8.57634867657112</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3263997326181846</v>
+        <v>-0.3316033344899899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1238808232357827</v>
+        <v>0.1347412585823269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2346047020610448</v>
+        <v>0.2173784665666088</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2794298357666168</v>
+        <v>0.2611956669582093</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.883793446008093</v>
+        <v>6.603645049658943</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.04534332209861</v>
+        <v>23.65299981411051</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23.39326526168611</v>
+        <v>23.57994756291562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.82432046704604</v>
+        <v>22.01658476835943</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2586978791489036</v>
+        <v>0.2599057064863682</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.172083136986242</v>
+        <v>1.204945446208771</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.46604140236545</v>
+        <v>1.397290491464999</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9219653598989986</v>
+        <v>0.9098362987184357</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>16.95857492551955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19.91400512870099</v>
+        <v>19.91400512870097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.678770996981695</v>
@@ -849,7 +849,7 @@
         <v>0.9035261048597579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.162408557009592</v>
+        <v>1.162408557009591</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.746767758298358</v>
+        <v>0.2140157970512515</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.792895274291074</v>
+        <v>-4.378634587472398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.207170998991182</v>
+        <v>7.655194768927491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.14631283388637</v>
+        <v>13.65680172534369</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1276709499066853</v>
+        <v>-0.002478579246154029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1629128502769902</v>
+        <v>-0.1514878661096538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3199637567795669</v>
+        <v>0.3163119079286186</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6562160735461459</v>
+        <v>0.6728832929113565</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.85404822976314</v>
+        <v>21.03037448378007</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.46392548543461</v>
+        <v>15.69011083869872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.3385536249955</v>
+        <v>26.34177515348969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.4917906142183</v>
+        <v>25.81852163751444</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.749575311654292</v>
+        <v>1.555223010154746</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.792278007453964</v>
+        <v>0.7968222251051734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.875439039518936</v>
+        <v>1.842912581837241</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.756174400262017</v>
+        <v>1.86292052629068</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.867074303809836</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.712197626667723</v>
+        <v>2.712197626667728</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.300594990029726</v>
@@ -949,7 +949,7 @@
         <v>0.1409967032203173</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1078134445151009</v>
+        <v>0.1078134445151012</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-11.67916205955079</v>
+        <v>-12.2865878127281</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.525802221804573</v>
+        <v>-5.032831375288188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.352658981346249</v>
+        <v>-8.663831207723257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.995032560682214</v>
+        <v>-4.608083267911718</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3797870607781554</v>
+        <v>-0.426014491551335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.158766697589128</v>
+        <v>-0.1988173159630176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3310672880834854</v>
+        <v>-0.359407260649139</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1463000994406085</v>
+        <v>-0.1554359805902262</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.40288226694569</v>
+        <v>24.98324136079096</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.43417232793926</v>
+        <v>25.38744093683732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.25536720055321</v>
+        <v>14.94782531298186</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.364756523723749</v>
+        <v>9.34425677626213</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.763769699581536</v>
+        <v>1.643695303024411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.881041601042094</v>
+        <v>1.897380995994232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.059681907781555</v>
+        <v>1.012132101430911</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4374565110486353</v>
+        <v>0.433771379278386</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14.80407876877267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.41636337003363</v>
+        <v>16.41636337003361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2919521866395474</v>
@@ -1049,7 +1049,7 @@
         <v>0.7048276034409802</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6619759400568301</v>
+        <v>0.6619759400568294</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.988216219170306</v>
+        <v>2.466317838387801</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.570128101658455</v>
+        <v>6.474201871862999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.415473338948349</v>
+        <v>9.684827692820324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.76008771206383</v>
+        <v>12.77338550783297</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06715783025620832</v>
+        <v>0.07771047814686279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1964668937187915</v>
+        <v>0.2188518008858817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4066945251320688</v>
+        <v>0.4031607347355211</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4688916328031255</v>
+        <v>0.4781455134877679</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.78896045242126</v>
+        <v>12.69735873439056</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.53472714730571</v>
+        <v>16.96681326587643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.61140686413906</v>
+        <v>19.97308399800673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.12825387610166</v>
+        <v>20.04689009443887</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5420652556772839</v>
+        <v>0.5339767187134967</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7033920344638007</v>
+        <v>0.7163137144761323</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.042429587121521</v>
+        <v>1.075593403860874</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8802004499128917</v>
+        <v>0.8770878398428399</v>
       </c>
     </row>
     <row r="19">
